--- a/data/trans_camb/P1432-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1432-Provincia-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.29851440964507</v>
+        <v>-3.040432110367117</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.057703191457763</v>
+        <v>-1.878914911795088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.112495960192351</v>
+        <v>-3.070510729167329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.19356429152287</v>
+        <v>-2.344113675305435</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.226383690850568</v>
+        <v>-2.632651021280378</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.46974188125152</v>
+        <v>-1.627644155282451</v>
       </c>
     </row>
     <row r="6">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.619867310259064</v>
+        <v>1.567988709421708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.006000438048674</v>
+        <v>0.9691407207119012</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.171300069534631</v>
+        <v>2.343199787657886</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1344836024996914</v>
+        <v>0.08215125052954619</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.483013973252638</v>
+        <v>1.418860039817809</v>
       </c>
     </row>
     <row r="7">
@@ -718,13 +718,13 @@
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.78014435689991</v>
+        <v>-0.8152708358348523</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7205477382465432</v>
+        <v>-0.7545490985013416</v>
       </c>
     </row>
     <row r="9">
@@ -737,16 +737,16 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>2.953702743607197</v>
+        <v>2.37997859846013</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.530199762741196</v>
+        <v>3.491728451745103</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8239555711325911</v>
+        <v>0.6772295975657203</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.258048624889815</v>
+        <v>1.915910483070599</v>
       </c>
     </row>
     <row r="10">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.006835224950711</v>
+        <v>-1.023778453403579</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8247318862530418</v>
+        <v>-0.6715298580077435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.774649549782003</v>
+        <v>-0.8621038599649214</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.122845445373595</v>
+        <v>-2.028893894513006</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6159793953424121</v>
+        <v>-0.6828212717038175</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.172330560358446</v>
+        <v>-1.082495782592763</v>
       </c>
     </row>
     <row r="12">
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4259869228704411</v>
+        <v>0.4224459116667956</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8527930264253492</v>
+        <v>1.001697752527858</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.830959273753888</v>
+        <v>2.938321666623909</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7518517633765556</v>
+        <v>0.6572944625871922</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.352770030930802</v>
+        <v>1.360448970534647</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4946894827695837</v>
+        <v>0.5107796951664215</v>
       </c>
     </row>
     <row r="13">
@@ -867,16 +867,16 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.4168311780704906</v>
+        <v>-0.4502175918884919</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8928137762201646</v>
+        <v>-0.8656608199117981</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4829500409847897</v>
+        <v>-0.4853980386192664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.770758945576391</v>
+        <v>-0.779995387086117</v>
       </c>
     </row>
     <row r="15">
@@ -889,16 +889,16 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>3.194990730055995</v>
+        <v>3.203449253209361</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.222165473611484</v>
+        <v>1.349410709790865</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.273766552001957</v>
+        <v>2.464390794109516</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.071082903788249</v>
+        <v>1.046017210278369</v>
       </c>
     </row>
     <row r="16">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.900483261761999</v>
+        <v>-2.883241574312419</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.73148797295554</v>
+        <v>-3.229066266151572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.888244702112565</v>
+        <v>-2.726150399253379</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.563763217342898</v>
+        <v>-3.583182320659553</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.342875308175944</v>
+        <v>-2.217194266018427</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.693743822169974</v>
+        <v>-2.697469191408881</v>
       </c>
     </row>
     <row r="18">
@@ -965,22 +965,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3262875356734806</v>
+        <v>-0.3029637888982876</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.3036959214723505</v>
+        <v>-0.3023275457643821</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3005765709343057</v>
+        <v>0.5358088180387569</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.6123958740724116</v>
+        <v>-0.6095313009599743</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.2831020714670201</v>
+        <v>-0.1951170740580283</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.636757033072349</v>
+        <v>-0.7577712977772203</v>
       </c>
     </row>
     <row r="19">
@@ -1018,9 +1018,7 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
         <v>-1</v>
@@ -1036,12 +1034,10 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
-      <c r="E21" s="6" t="n">
-        <v>2.009792326863154</v>
-      </c>
+      <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>0.01019572723074121</v>
+        <v>0.2426804758526597</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
     </row>
@@ -1083,22 +1079,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.23217959469632</v>
+        <v>-1.247994224852341</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.657832548251214</v>
+        <v>-1.494051092659449</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3095314290520267</v>
+        <v>-0.3561076481176929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.470546446861029</v>
+        <v>1.524677153087339</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4456740298750177</v>
+        <v>-0.4816955198159012</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3415594530528249</v>
+        <v>0.4514845349697831</v>
       </c>
     </row>
     <row r="24">
@@ -1109,22 +1105,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9184882591331949</v>
+        <v>1.173260756048717</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5218615767371195</v>
+        <v>0.3130322519980641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.592458851723817</v>
+        <v>2.50571036541886</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.140681078841967</v>
+        <v>6.081687775299926</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.412566645711032</v>
+        <v>1.364249370716059</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.888692960911706</v>
+        <v>2.8466337892218</v>
       </c>
     </row>
     <row r="25">
@@ -1163,16 +1159,16 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.8707063133404848</v>
+        <v>-0.8277272744219608</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3771951798172841</v>
+        <v>0.3371590215046673</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5612490691060525</v>
+        <v>-0.5837776250334895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09641440601830167</v>
+        <v>0.1767803169547426</v>
       </c>
     </row>
     <row r="27">
@@ -1187,10 +1183,10 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>4.786067571102754</v>
+        <v>4.712207969699347</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9.313081566962216</v>
+        <v>8.563917716609772</v>
       </c>
     </row>
     <row r="28">
@@ -1231,22 +1227,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4878252750022302</v>
+        <v>0.4976925817771184</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8133848594262874</v>
+        <v>0.8635902575435502</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.489393616177975</v>
+        <v>-3.478237917222507</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.142270370509852</v>
+        <v>1.235097836764412</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.472556829123993</v>
+        <v>-1.525176783609657</v>
       </c>
     </row>
     <row r="30">
@@ -1257,22 +1253,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.208246835930877</v>
+        <v>7.013340679214671</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.245841211390973</v>
+        <v>2.263488751525069</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.440673865481638</v>
+        <v>7.591836807120266</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.459324113288679</v>
+        <v>5.375403812149858</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4376864995924973</v>
+        <v>0.223285153276291</v>
       </c>
     </row>
     <row r="31">
@@ -1315,11 +1311,11 @@
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>-0.242880138452748</v>
+        <v>-0.09878835158952447</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="n">
-        <v>0.323003037447486</v>
+        <v>0.1697531073007351</v>
       </c>
       <c r="H32" s="6" t="inlineStr"/>
     </row>
@@ -1375,22 +1371,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.104584204927497</v>
+        <v>-1.087101486673436</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.1357797144954216</v>
+        <v>-0.1006900318816986</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.9212563866926223</v>
+        <v>-0.9059258572548223</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.257278340759556</v>
+        <v>-1.262553215392202</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.6552085657054445</v>
+        <v>-0.6040229597132358</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.2239052459463386</v>
+        <v>-0.3516631825545456</v>
       </c>
     </row>
     <row r="36">
@@ -1401,22 +1397,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.7003127174778023</v>
+        <v>0.7028695183338095</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.961055574026919</v>
+        <v>3.056373230830902</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.033719966814711</v>
+        <v>3.02395849162148</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.319698577548713</v>
+        <v>2.644987178506417</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.691601872165055</v>
+        <v>1.67611421449244</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.193425643517569</v>
+        <v>2.098880885612815</v>
       </c>
     </row>
     <row r="37">
@@ -1454,13 +1450,15 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="inlineStr"/>
+      <c r="E38" s="6" t="n">
+        <v>-0.7840161788628476</v>
+      </c>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="n">
-        <v>-0.8502958137369757</v>
+        <v>-0.7019249330592217</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.491950255118882</v>
+        <v>-0.5284969258078256</v>
       </c>
     </row>
     <row r="39">
@@ -1474,10 +1472,10 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="inlineStr"/>
-      <c r="G39" s="6" t="n">
-        <v>8.644497823507873</v>
-      </c>
-      <c r="H39" s="6" t="inlineStr"/>
+      <c r="G39" s="6" t="inlineStr"/>
+      <c r="H39" s="6" t="n">
+        <v>12.64955927706216</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1517,22 +1515,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.4402271975565214</v>
+        <v>-0.4453715868279793</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.518452967509009</v>
+        <v>-1.470891448367071</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.3640785263168153</v>
+        <v>-0.4409120163114615</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.4373904396716193</v>
+        <v>0.6158935405944009</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.1796321461159737</v>
+        <v>-0.1535675319668694</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.07668875026429725</v>
+        <v>-0.05225563205184503</v>
       </c>
     </row>
     <row r="42">
@@ -1543,22 +1541,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.246774550931368</v>
+        <v>2.271315903071216</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.5180607013517269</v>
+        <v>0.541060946223222</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.920130532085848</v>
+        <v>1.74871530980529</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.346998756823539</v>
+        <v>3.310690776501072</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.618300637124195</v>
+        <v>1.621310479736538</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.639366866672133</v>
+        <v>1.694329966880957</v>
       </c>
     </row>
     <row r="43">
@@ -1595,22 +1593,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4337286076414803</v>
+        <v>-0.5134167504998246</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8955068296020635</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5640326283605686</v>
+        <v>-0.6074883962529495</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.106064929279454</v>
+        <v>0.236421540717202</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.234154755557638</v>
+        <v>-0.2233703713343135</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2090406228863675</v>
+        <v>-0.1335715308468959</v>
       </c>
     </row>
     <row r="45">
@@ -1621,22 +1619,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>6.197678976152573</v>
+        <v>5.722508925766526</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.624855761192728</v>
+        <v>2.013429955984942</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>9.489064651776459</v>
+        <v>7.767225737892189</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>12.9563598606072</v>
+        <v>16.71428824235386</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3.786898826876163</v>
+        <v>3.888765532028098</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.741418826647917</v>
+        <v>4.236619243198563</v>
       </c>
     </row>
     <row r="46">
@@ -1677,22 +1675,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.420668725007454</v>
+        <v>-3.37683062877041</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.591387041524186</v>
+        <v>-3.38662480816872</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.098100669607736</v>
+        <v>-2.951326181718203</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.538322021986539</v>
+        <v>-3.505061938088249</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.772882438536232</v>
+        <v>-2.885664333318403</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.06013561673988</v>
+        <v>-3.147904297710968</v>
       </c>
     </row>
     <row r="48">
@@ -1703,22 +1701,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.098502722055325</v>
+        <v>-1.020005271940907</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.140197451544745</v>
+        <v>-1.22172360650868</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-0.2972629892883254</v>
+        <v>-0.1982079700671373</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.7907905124710438</v>
+        <v>-0.7815168200145736</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.984469852783646</v>
+        <v>-0.9093070585268151</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.261088244312912</v>
+        <v>-1.178410425985894</v>
       </c>
     </row>
     <row r="49">
@@ -1755,22 +1753,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.967453531685831</v>
+        <v>-0.9616253547278689</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8123984348238977</v>
+        <v>-0.8117190722047751</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.9120583611440604</v>
+        <v>-0.922798638851135</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.8483054242270555</v>
+        <v>-0.8574546329334085</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.9239323343084763</v>
+        <v>-0.928053251345838</v>
       </c>
     </row>
     <row r="51">
@@ -1781,22 +1779,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.5103647286889829</v>
+        <v>-0.4644413300472775</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.4642674963549712</v>
+        <v>-0.4499549593423448</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.06632853753641962</v>
+        <v>-0.01601557341267115</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.2853053464523163</v>
+        <v>-0.2322538441131839</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.436035457553204</v>
+        <v>-0.4058020790262886</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.5631921196422307</v>
+        <v>-0.5742210310191718</v>
       </c>
     </row>
     <row r="52">
@@ -1837,22 +1835,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.8842974779698892</v>
+        <v>-0.8904879188947792</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.9781676946325941</v>
+        <v>-1.012757001129152</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.4688345760969417</v>
+        <v>-0.4513514028322703</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.7420225441467622</v>
+        <v>-0.588114278740597</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.5249777430663999</v>
+        <v>-0.5535025308388324</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.6765766418896479</v>
+        <v>-0.675661541929751</v>
       </c>
     </row>
     <row r="54">
@@ -1863,22 +1861,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.05830150004008472</v>
+        <v>0.06214236067024184</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.1621307984279559</v>
+        <v>-0.1315764022548725</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.7033453993444768</v>
+        <v>0.7256985242853583</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.5219053311891698</v>
+        <v>0.6229321361240968</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.2317481105988469</v>
+        <v>0.2790666476641593</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>0.06895911278590609</v>
+        <v>0.06275537682703085</v>
       </c>
     </row>
     <row r="55">
@@ -1915,22 +1913,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.6733681301722928</v>
+        <v>-0.6652076829424903</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.7181700707011812</v>
+        <v>-0.7434427369899415</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2766475024062953</v>
+        <v>-0.2562481835697287</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3887841778148542</v>
+        <v>-0.34057850651749</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3561272958655804</v>
+        <v>-0.3643939931971383</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.4555204210587805</v>
+        <v>-0.4468391909106574</v>
       </c>
     </row>
     <row r="57">
@@ -1941,22 +1939,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.06971349823550811</v>
+        <v>0.07657470016676028</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1608697872713786</v>
+        <v>-0.09343361631681237</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.5557067224116814</v>
+        <v>0.6097528217197348</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.4415078487349819</v>
+        <v>0.5594049253589474</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2078014195790539</v>
+        <v>0.2530239110894726</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.0669254317932548</v>
+        <v>0.08112935757789408</v>
       </c>
     </row>
     <row r="58">
